--- a/storage/attendance/attendance_sample_sheet.xlsx
+++ b/storage/attendance/attendance_sample_sheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>Saturday</t>
-  </si>
-  <si>
-    <t>Monday</t>
   </si>
   <si>
     <t>Allowed</t>
@@ -476,7 +473,7 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -532,10 +529,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="AMH1" s="2"/>
       <c r="AMI1" s="2"/>
@@ -561,23 +558,23 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -596,125 +593,50 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3">
-        <v>42595</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.40625</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="I4" s="7"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42602</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.40625</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="I5" s="7"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
-        <v>42597</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.40625</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
       <c r="E7" s="4"/>
